--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H2">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I2">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J2">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N2">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q2">
-        <v>8.244875921186667</v>
+        <v>17.41995864380256</v>
       </c>
       <c r="R2">
-        <v>74.20388329068</v>
+        <v>156.779627794223</v>
       </c>
       <c r="S2">
-        <v>0.04198492724067882</v>
+        <v>0.07161293406768521</v>
       </c>
       <c r="T2">
-        <v>0.04198492724067882</v>
+        <v>0.07161293406768519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H3">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I3">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J3">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.553807</v>
       </c>
       <c r="O3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q3">
-        <v>8.191279242135</v>
+        <v>17.757300482859</v>
       </c>
       <c r="R3">
-        <v>73.72151317921499</v>
+        <v>159.815704345731</v>
       </c>
       <c r="S3">
-        <v>0.04171199982590185</v>
+        <v>0.07299973637718525</v>
       </c>
       <c r="T3">
-        <v>0.04171199982590185</v>
+        <v>0.07299973637718525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H4">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I4">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J4">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N4">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q4">
-        <v>8.600469263613334</v>
+        <v>20.51505453977934</v>
       </c>
       <c r="R4">
-        <v>77.40422337252001</v>
+        <v>184.635490858014</v>
       </c>
       <c r="S4">
-        <v>0.04379569561994445</v>
+        <v>0.08433678163035455</v>
       </c>
       <c r="T4">
-        <v>0.04379569561994445</v>
+        <v>0.08433678163035455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H5">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I5">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J5">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N5">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q5">
-        <v>2.855233502678333</v>
+        <v>5.175656513653889</v>
       </c>
       <c r="R5">
-        <v>25.697101524105</v>
+        <v>46.580908622885</v>
       </c>
       <c r="S5">
-        <v>0.01453954820072595</v>
+        <v>0.0212769706431619</v>
       </c>
       <c r="T5">
-        <v>0.01453954820072595</v>
+        <v>0.0212769706431619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.592014</v>
       </c>
       <c r="I6">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J6">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N6">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O6">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P6">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q6">
-        <v>34.53637604992177</v>
+        <v>33.66003378184822</v>
       </c>
       <c r="R6">
-        <v>310.8273844492959</v>
+        <v>302.940304036634</v>
       </c>
       <c r="S6">
-        <v>0.1758676843015476</v>
+        <v>0.1383754019871412</v>
       </c>
       <c r="T6">
-        <v>0.1758676843015476</v>
+        <v>0.1383754019871412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.592014</v>
       </c>
       <c r="I7">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J7">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.553807</v>
       </c>
       <c r="O7">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P7">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q7">
         <v>34.311868721922</v>
@@ -883,10 +883,10 @@
         <v>308.806818497298</v>
       </c>
       <c r="S7">
-        <v>0.1747244380087988</v>
+        <v>0.1410550761207605</v>
       </c>
       <c r="T7">
-        <v>0.1747244380087988</v>
+        <v>0.1410550761207605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.592014</v>
       </c>
       <c r="I8">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J8">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N8">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O8">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P8">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q8">
-        <v>36.02589578463822</v>
+        <v>39.64058945060133</v>
       </c>
       <c r="R8">
-        <v>324.233062061744</v>
+        <v>356.765305055412</v>
       </c>
       <c r="S8">
-        <v>0.1834526835524065</v>
+        <v>0.1629612892186764</v>
       </c>
       <c r="T8">
-        <v>0.1834526835524065</v>
+        <v>0.1629612892186764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.592014</v>
       </c>
       <c r="I9">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J9">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N9">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O9">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P9">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q9">
-        <v>11.96008513668955</v>
+        <v>10.00075698542555</v>
       </c>
       <c r="R9">
-        <v>107.640766230206</v>
+        <v>90.00681286883</v>
       </c>
       <c r="S9">
-        <v>0.06090368236663078</v>
+        <v>0.04111281578036448</v>
       </c>
       <c r="T9">
-        <v>0.06090368236663078</v>
+        <v>0.04111281578036448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H10">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I10">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J10">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N10">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O10">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P10">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q10">
-        <v>13.47339482480622</v>
+        <v>14.72323950224167</v>
       </c>
       <c r="R10">
-        <v>121.260553423256</v>
+        <v>132.509155520175</v>
       </c>
       <c r="S10">
-        <v>0.06860982588601656</v>
+        <v>0.06052680154392229</v>
       </c>
       <c r="T10">
-        <v>0.06860982588601658</v>
+        <v>0.06052680154392227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H11">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I11">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J11">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.553807</v>
       </c>
       <c r="O11">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P11">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q11">
-        <v>13.385809611267</v>
+        <v>15.008358703275</v>
       </c>
       <c r="R11">
-        <v>120.472286501403</v>
+        <v>135.075228329475</v>
       </c>
       <c r="S11">
-        <v>0.06816382053033204</v>
+        <v>0.06169891813515742</v>
       </c>
       <c r="T11">
-        <v>0.06816382053033204</v>
+        <v>0.06169891813515742</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H12">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I12">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J12">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N12">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O12">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P12">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q12">
-        <v>14.05448901535378</v>
+        <v>17.33919509035</v>
       </c>
       <c r="R12">
-        <v>126.490401138184</v>
+        <v>156.05275581315</v>
       </c>
       <c r="S12">
-        <v>0.07156889980578622</v>
+        <v>0.07128091749136987</v>
       </c>
       <c r="T12">
-        <v>0.07156889980578623</v>
+        <v>0.07128091749136987</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H13">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I13">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J13">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N13">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O13">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P13">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q13">
-        <v>4.665890507793444</v>
+        <v>4.374432338791666</v>
       </c>
       <c r="R13">
-        <v>41.993014570141</v>
+        <v>39.36989104912499</v>
       </c>
       <c r="S13">
-        <v>0.0237598570742938</v>
+        <v>0.01798316178970305</v>
       </c>
       <c r="T13">
-        <v>0.02375985707429381</v>
+        <v>0.01798316178970305</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H14">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I14">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J14">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N14">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O14">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P14">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q14">
-        <v>1.794708288094222</v>
+        <v>3.813551362046334</v>
       </c>
       <c r="R14">
-        <v>16.152374592848</v>
+        <v>34.32196225841701</v>
       </c>
       <c r="S14">
-        <v>0.009139094100889039</v>
+        <v>0.01567739670559522</v>
       </c>
       <c r="T14">
-        <v>0.009139094100889039</v>
+        <v>0.01567739670559522</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H15">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I15">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J15">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.553807</v>
       </c>
       <c r="O15">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P15">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q15">
-        <v>1.783041598986</v>
+        <v>3.887401734261</v>
       </c>
       <c r="R15">
-        <v>16.047374390874</v>
+        <v>34.986615608349</v>
       </c>
       <c r="S15">
-        <v>0.009079684462947775</v>
+        <v>0.01598099339858533</v>
       </c>
       <c r="T15">
-        <v>0.009079684462947777</v>
+        <v>0.01598099339858533</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H16">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I16">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J16">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N16">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O16">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P16">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q16">
-        <v>1.872112281185778</v>
+        <v>4.491125138834001</v>
       </c>
       <c r="R16">
-        <v>16.849010530672</v>
+        <v>40.420126249506</v>
       </c>
       <c r="S16">
-        <v>0.009533254188821476</v>
+        <v>0.01846288243465294</v>
       </c>
       <c r="T16">
-        <v>0.009533254188821477</v>
+        <v>0.01846288243465294</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H17">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I17">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J17">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N17">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O17">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P17">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q17">
-        <v>0.6215146571864443</v>
+        <v>1.133047003768333</v>
       </c>
       <c r="R17">
-        <v>5.593631914677999</v>
+        <v>10.197423033915</v>
       </c>
       <c r="S17">
-        <v>0.003164904834278284</v>
+        <v>0.004657922675684259</v>
       </c>
       <c r="T17">
-        <v>0.003164904834278285</v>
+        <v>0.004657922675684258</v>
       </c>
     </row>
   </sheetData>
